--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T00:01:37+00:00</t>
+    <t>2021-11-10T17:08:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:08:38+00:00</t>
+    <t>2021-11-10T17:51:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:51:54+00:00</t>
+    <t>2021-11-10T18:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-name-use-value-set</t>
+    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-name-use-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,10 +58,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T18:31:12+00:00</t>
+    <t>2021-11-17T18:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>BC Ministry of Health</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -246,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -322,34 +331,44 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -371,12 +390,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -398,56 +417,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-name-use-value-set</t>
+    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-name-use-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T18:19:53+00:00</t>
+    <t>2021-11-17T21:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
   <si>
     <t>Description</t>
@@ -255,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -355,20 +361,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -390,12 +404,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -417,56 +431,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:28:52+00:00</t>
+    <t>2021-11-17T22:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCNameUse</t>
+    <t>BCNameUseVS</t>
   </si>
   <si>
     <t>Title</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T22:00:02+00:00</t>
+    <t>2021-11-26T18:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>temp</t>
-  </si>
-  <si>
-    <t>nickname</t>
   </si>
   <si>
     <t>anonymous</t>
@@ -419,7 +416,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,22 +462,16 @@
       <c r="A6" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" t="s" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T18:59:02+00:00</t>
+    <t>2021-11-29T18:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:20:37+00:00</t>
+    <t>2021-11-29T18:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:24:57+00:00</t>
+    <t>2021-11-29T18:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:48:09+00:00</t>
+    <t>2021-11-30T19:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T19:25:31+00:00</t>
+    <t>2021-12-02T21:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T21:15:02+00:00</t>
+    <t>2021-12-09T00:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCNameUseVS</t>
+    <t>NameUseVS</t>
   </si>
   <si>
     <t>Title</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-name-use-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-name-use-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T22:48:36+00:00</t>
+    <t>2022-12-19T23:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T21:31:48+00:00</t>
+    <t>2023-06-28T23:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -246,10 +246,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T21:08:14+00:00</t>
+    <t>2024-01-19T19:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -320,66 +323,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -401,12 +406,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -428,50 +433,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-name-use-value-set.xlsx
+++ b/ValueSet-bc-name-use-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
